--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.314108</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N2">
-        <v>3.942324</v>
+        <v>18.404863</v>
       </c>
       <c r="O2">
-        <v>0.05768654525237048</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P2">
-        <v>0.05768654525237048</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q2">
-        <v>140.450009709684</v>
+        <v>1297.306441259689</v>
       </c>
       <c r="R2">
-        <v>1264.050087387156</v>
+        <v>11675.7579713372</v>
       </c>
       <c r="S2">
-        <v>0.008703447724970372</v>
+        <v>0.05631515052714643</v>
       </c>
       <c r="T2">
-        <v>0.008703447724970373</v>
+        <v>0.05631515052714642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.736649</v>
       </c>
       <c r="O3">
-        <v>0.2156358456095441</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P3">
-        <v>0.2156358456095441</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q3">
-        <v>525.0107538442312</v>
+        <v>1038.744470430622</v>
       </c>
       <c r="R3">
-        <v>4725.09678459808</v>
+        <v>9348.700233875601</v>
       </c>
       <c r="S3">
-        <v>0.03253402161079021</v>
+        <v>0.04509115915183514</v>
       </c>
       <c r="T3">
-        <v>0.03253402161079022</v>
+        <v>0.04509115915183513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0405</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N4">
-        <v>0.1215</v>
+        <v>0.0262</v>
       </c>
       <c r="O4">
-        <v>0.001777863830614383</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P4">
-        <v>0.001777863830614382</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q4">
-        <v>4.3285828815</v>
+        <v>1.846763475555556</v>
       </c>
       <c r="R4">
-        <v>38.9572459335</v>
+        <v>16.62087128</v>
       </c>
       <c r="S4">
-        <v>0.0002682349037227534</v>
+        <v>8.016668984774495E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002682349037227535</v>
+        <v>8.016668984774493E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.10639433333333</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N5">
-        <v>48.319183</v>
+        <v>43.778135</v>
       </c>
       <c r="O5">
-        <v>0.7070364426381673</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P5">
-        <v>0.7070364426381672</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q5">
-        <v>1721.428710961858</v>
+        <v>3085.796211677111</v>
       </c>
       <c r="R5">
-        <v>15492.85839865672</v>
+        <v>27772.165905094</v>
       </c>
       <c r="S5">
-        <v>0.1066740032919103</v>
+        <v>0.133952220254111</v>
       </c>
       <c r="T5">
-        <v>0.1066740032919103</v>
+        <v>0.133952220254111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4069286666666667</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N6">
-        <v>1.220786</v>
+        <v>1.629906</v>
       </c>
       <c r="O6">
-        <v>0.01786330266930378</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P6">
-        <v>0.01786330266930378</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q6">
-        <v>43.49196198827044</v>
+        <v>114.8874377629333</v>
       </c>
       <c r="R6">
-        <v>391.4276578944339</v>
+        <v>1033.9869398664</v>
       </c>
       <c r="S6">
-        <v>0.002695122758650907</v>
+        <v>0.004987182014617503</v>
       </c>
       <c r="T6">
-        <v>0.002695122758650908</v>
+        <v>0.004987182014617502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.232923</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>231.698769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.314108</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N7">
-        <v>3.942324</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O7">
-        <v>0.05768654525237048</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P7">
-        <v>0.05768654525237048</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q7">
-        <v>101.492401977684</v>
+        <v>38.70943121644444</v>
       </c>
       <c r="R7">
-        <v>913.4316177991559</v>
+        <v>348.384880948</v>
       </c>
       <c r="S7">
-        <v>0.006289311171429179</v>
+        <v>0.001680348895560538</v>
       </c>
       <c r="T7">
-        <v>0.00628931117142918</v>
+        <v>0.001680348895560537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.912216333333333</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N8">
-        <v>14.736649</v>
+        <v>18.404863</v>
       </c>
       <c r="O8">
-        <v>0.2156358456095441</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P8">
-        <v>0.2156358456095441</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q8">
-        <v>379.3848258316756</v>
+        <v>473.8204556348496</v>
       </c>
       <c r="R8">
-        <v>3414.463432485081</v>
+        <v>4264.384100713647</v>
       </c>
       <c r="S8">
-        <v>0.02350983105019543</v>
+        <v>0.02056820920121858</v>
       </c>
       <c r="T8">
-        <v>0.02350983105019543</v>
+        <v>0.02056820920121857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0405</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N9">
-        <v>0.1215</v>
+        <v>14.736649</v>
       </c>
       <c r="O9">
-        <v>0.001777863830614383</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P9">
-        <v>0.001777863830614382</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q9">
-        <v>3.1279333815</v>
+        <v>379.3848258316756</v>
       </c>
       <c r="R9">
-        <v>28.1514004335</v>
+        <v>3414.463432485081</v>
       </c>
       <c r="S9">
-        <v>0.0001938327005412658</v>
+        <v>0.01646882563358002</v>
       </c>
       <c r="T9">
-        <v>0.0001938327005412658</v>
+        <v>0.01646882563358002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>16.10639433333333</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N10">
-        <v>48.319183</v>
+        <v>0.0262</v>
       </c>
       <c r="O10">
-        <v>0.7070364426381673</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P10">
-        <v>0.7070364426381672</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q10">
-        <v>1243.943913353969</v>
+        <v>0.6745008608666667</v>
       </c>
       <c r="R10">
-        <v>11195.49522018572</v>
+        <v>6.0705077478</v>
       </c>
       <c r="S10">
-        <v>0.07708508418796396</v>
+        <v>2.927960295449778E-05</v>
       </c>
       <c r="T10">
-        <v>0.07708508418796398</v>
+        <v>2.927960295449777E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4069286666666667</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N11">
-        <v>1.220786</v>
+        <v>43.778135</v>
       </c>
       <c r="O11">
-        <v>0.01786330266930378</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P11">
-        <v>0.01786330266930378</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q11">
-        <v>31.42829037915933</v>
+        <v>1127.037776512868</v>
       </c>
       <c r="R11">
-        <v>282.854613412434</v>
+        <v>10143.33998861581</v>
       </c>
       <c r="S11">
-        <v>0.001947557589818681</v>
+        <v>0.04892390881253445</v>
       </c>
       <c r="T11">
-        <v>0.001947557589818681</v>
+        <v>0.04892390881253444</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.314108</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N12">
-        <v>3.942324</v>
+        <v>1.629906</v>
       </c>
       <c r="O12">
-        <v>0.05768654525237048</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P12">
-        <v>0.05768654525237048</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q12">
-        <v>179.607467862396</v>
+        <v>41.96080153174601</v>
       </c>
       <c r="R12">
-        <v>1616.467210761564</v>
+        <v>377.647213785714</v>
       </c>
       <c r="S12">
-        <v>0.01112996866846694</v>
+        <v>0.001821488569967697</v>
       </c>
       <c r="T12">
-        <v>0.01112996866846694</v>
+        <v>0.001821488569967697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>4.912216333333333</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N13">
-        <v>14.736649</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O13">
-        <v>0.2156358456095441</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P13">
-        <v>0.2156358456095441</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q13">
-        <v>671.383734991571</v>
+        <v>14.13800144130333</v>
       </c>
       <c r="R13">
-        <v>6042.453614924139</v>
+        <v>127.24201297173</v>
       </c>
       <c r="S13">
-        <v>0.0416045057809035</v>
+        <v>0.0006137205936840284</v>
       </c>
       <c r="T13">
-        <v>0.04160450578090351</v>
+        <v>0.0006137205936840282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0405</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N14">
-        <v>0.1215</v>
+        <v>18.404863</v>
       </c>
       <c r="O14">
-        <v>0.001777863830614383</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P14">
-        <v>0.001777863830614382</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q14">
-        <v>5.535391648500001</v>
+        <v>1069.388210896169</v>
       </c>
       <c r="R14">
-        <v>49.8185248365</v>
+        <v>9624.493898065517</v>
       </c>
       <c r="S14">
-        <v>0.0003430187861826509</v>
+        <v>0.04642138214475915</v>
       </c>
       <c r="T14">
-        <v>0.0003430187861826509</v>
+        <v>0.04642138214475913</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.10639433333333</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N15">
-        <v>48.319183</v>
+        <v>14.736649</v>
       </c>
       <c r="O15">
-        <v>0.7070364426381673</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P15">
-        <v>0.7070364426381672</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q15">
-        <v>2201.362979757557</v>
+        <v>856.2518889010373</v>
       </c>
       <c r="R15">
-        <v>19812.26681781801</v>
+        <v>7706.267000109337</v>
       </c>
       <c r="S15">
-        <v>0.1364147119505957</v>
+        <v>0.03716928589809024</v>
       </c>
       <c r="T15">
-        <v>0.1364147119505957</v>
+        <v>0.03716928589809022</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.4069286666666667</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N16">
-        <v>1.220786</v>
+        <v>0.0262</v>
       </c>
       <c r="O16">
-        <v>0.01786330266930378</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P16">
-        <v>0.01786330266930378</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q16">
-        <v>55.61751958029401</v>
+        <v>1.522313484511111</v>
       </c>
       <c r="R16">
-        <v>500.557676222646</v>
+        <v>13.7008213606</v>
       </c>
       <c r="S16">
-        <v>0.003446522896368506</v>
+        <v>6.608254634618523E-05</v>
       </c>
       <c r="T16">
-        <v>0.003446522896368507</v>
+        <v>6.608254634618521E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.314108</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N17">
-        <v>3.942324</v>
+        <v>43.778135</v>
       </c>
       <c r="O17">
-        <v>0.05768654525237048</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P17">
-        <v>0.05768654525237048</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q17">
-        <v>59.858492405748</v>
+        <v>2543.665848749917</v>
       </c>
       <c r="R17">
-        <v>538.726431651732</v>
+        <v>22892.99263874925</v>
       </c>
       <c r="S17">
-        <v>0.003709328754236765</v>
+        <v>0.1104187265300402</v>
       </c>
       <c r="T17">
-        <v>0.003709328754236766</v>
+        <v>0.1104187265300402</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.912216333333333</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N18">
-        <v>14.736649</v>
+        <v>1.629906</v>
       </c>
       <c r="O18">
-        <v>0.2156358456095441</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P18">
-        <v>0.2156358456095441</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q18">
-        <v>223.7547173323841</v>
+        <v>94.70335428570867</v>
       </c>
       <c r="R18">
-        <v>2013.792455991457</v>
+        <v>852.330188571378</v>
       </c>
       <c r="S18">
-        <v>0.0138656984755171</v>
+        <v>0.004111005297134557</v>
       </c>
       <c r="T18">
-        <v>0.0138656984755171</v>
+        <v>0.004111005297134556</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.0405</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N19">
-        <v>0.1215</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O19">
-        <v>0.001777863830614383</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P19">
-        <v>0.001777863830614382</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q19">
-        <v>1.8448019055</v>
+        <v>31.90873649957888</v>
       </c>
       <c r="R19">
-        <v>16.6032171495</v>
+        <v>287.17862849621</v>
       </c>
       <c r="S19">
-        <v>0.0001143192298856631</v>
+        <v>0.001385135571638723</v>
       </c>
       <c r="T19">
-        <v>0.0001143192298856631</v>
+        <v>0.001385135571638722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.10639433333333</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N20">
-        <v>48.319183</v>
+        <v>18.404863</v>
       </c>
       <c r="O20">
-        <v>0.7070364426381673</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P20">
-        <v>0.7070364426381672</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q20">
-        <v>733.6569618979687</v>
+        <v>175.0593779381594</v>
       </c>
       <c r="R20">
-        <v>6602.912657081719</v>
+        <v>1575.534401443435</v>
       </c>
       <c r="S20">
-        <v>0.04546347151657962</v>
+        <v>0.007599203169147478</v>
       </c>
       <c r="T20">
-        <v>0.04546347151657963</v>
+        <v>0.007599203169147475</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4069286666666667</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N21">
-        <v>1.220786</v>
+        <v>14.736649</v>
       </c>
       <c r="O21">
-        <v>0.01786330266930378</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P21">
-        <v>0.01786330266930378</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q21">
-        <v>18.53587110294422</v>
+        <v>140.1688568305561</v>
       </c>
       <c r="R21">
-        <v>166.822839926498</v>
+        <v>1261.519711475005</v>
       </c>
       <c r="S21">
-        <v>0.001148636340536618</v>
+        <v>0.006084630447040764</v>
       </c>
       <c r="T21">
-        <v>0.001148636340536618</v>
+        <v>0.006084630447040763</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>1.314108</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N22">
-        <v>3.942324</v>
+        <v>0.0262</v>
       </c>
       <c r="O22">
-        <v>0.05768654525237048</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P22">
-        <v>0.05768654525237048</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q22">
-        <v>260.9794974227519</v>
+        <v>0.2492034687777778</v>
       </c>
       <c r="R22">
-        <v>2348.815476804768</v>
+        <v>2.242831219</v>
       </c>
       <c r="S22">
-        <v>0.01617245465346057</v>
+        <v>1.081774545301771E-05</v>
       </c>
       <c r="T22">
-        <v>0.01617245465346058</v>
+        <v>1.081774545301771E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,43 +1863,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.912216333333333</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N23">
-        <v>14.736649</v>
+        <v>43.778135</v>
       </c>
       <c r="O23">
-        <v>0.2156358456095441</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P23">
-        <v>0.2156358456095441</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q23">
-        <v>975.5573742075742</v>
+        <v>416.3993549092305</v>
       </c>
       <c r="R23">
-        <v>8780.016367868167</v>
+        <v>3747.594194183075</v>
       </c>
       <c r="S23">
-        <v>0.06045362778312111</v>
+        <v>0.01807560003197884</v>
       </c>
       <c r="T23">
-        <v>0.06045362778312111</v>
+        <v>0.01807560003197883</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.0405</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N24">
-        <v>0.1215</v>
+        <v>1.629906</v>
       </c>
       <c r="O24">
-        <v>0.001777863830614383</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P24">
-        <v>0.001777863830614382</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q24">
-        <v>8.043227532</v>
+        <v>15.50298583899667</v>
       </c>
       <c r="R24">
-        <v>72.389047788</v>
+        <v>139.52687255097</v>
       </c>
       <c r="S24">
-        <v>0.0004984251016394036</v>
+        <v>0.0006729735961964232</v>
       </c>
       <c r="T24">
-        <v>0.0004984251016394035</v>
+        <v>0.0006729735961964231</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>16.10639433333333</v>
+        <v>0.1830566666666666</v>
       </c>
       <c r="N25">
-        <v>48.319183</v>
+        <v>0.5491699999999999</v>
       </c>
       <c r="O25">
-        <v>0.7070364426381673</v>
+        <v>0.006940543878949493</v>
       </c>
       <c r="P25">
-        <v>0.7070364426381672</v>
+        <v>0.006940543878949492</v>
       </c>
       <c r="Q25">
-        <v>3198.701094891739</v>
+        <v>5.223475914072221</v>
       </c>
       <c r="R25">
-        <v>28788.30985402565</v>
+        <v>47.01128322664999</v>
       </c>
       <c r="S25">
-        <v>0.1982180551268143</v>
+        <v>0.0002267473767341121</v>
       </c>
       <c r="T25">
-        <v>0.1982180551268143</v>
+        <v>0.000226747376734112</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H26">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4069286666666667</v>
+        <v>6.134954333333333</v>
       </c>
       <c r="N26">
-        <v>1.220786</v>
+        <v>18.404863</v>
       </c>
       <c r="O26">
-        <v>0.01786330266930378</v>
+        <v>0.2326051299917221</v>
       </c>
       <c r="P26">
-        <v>0.01786330266930378</v>
+        <v>0.232605129991722</v>
       </c>
       <c r="Q26">
-        <v>80.81530506897244</v>
+        <v>1413.057957991877</v>
       </c>
       <c r="R26">
-        <v>727.3377456207519</v>
+        <v>12717.52162192689</v>
       </c>
       <c r="S26">
-        <v>0.005007986717119019</v>
+        <v>0.0613398415956569</v>
       </c>
       <c r="T26">
-        <v>0.005007986717119019</v>
+        <v>0.06133984159565688</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H27">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I27">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J27">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.314108</v>
+        <v>4.912216333333333</v>
       </c>
       <c r="N27">
-        <v>3.942324</v>
+        <v>14.736649</v>
       </c>
       <c r="O27">
-        <v>0.05768654525237048</v>
+        <v>0.1862453502798354</v>
       </c>
       <c r="P27">
-        <v>0.05768654525237048</v>
+        <v>0.1862453502798353</v>
       </c>
       <c r="Q27">
-        <v>188.516307545616</v>
+        <v>1131.425924962497</v>
       </c>
       <c r="R27">
-        <v>1696.646767910544</v>
+        <v>10182.83332466247</v>
       </c>
       <c r="S27">
-        <v>0.01168203427980666</v>
+        <v>0.04911439521776368</v>
       </c>
       <c r="T27">
-        <v>0.01168203427980666</v>
+        <v>0.04911439521776367</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H28">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I28">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J28">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>4.912216333333333</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N28">
-        <v>14.736649</v>
+        <v>0.0262</v>
       </c>
       <c r="O28">
-        <v>0.2156358456095441</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="P28">
-        <v>0.2156358456095441</v>
+        <v>0.0003311219651992584</v>
       </c>
       <c r="Q28">
-        <v>704.6855243444714</v>
+        <v>2.011540020666667</v>
       </c>
       <c r="R28">
-        <v>6342.169719100243</v>
+        <v>18.103860186</v>
       </c>
       <c r="S28">
-        <v>0.04366816090901674</v>
+        <v>8.731952255261074E-05</v>
       </c>
       <c r="T28">
-        <v>0.04366816090901675</v>
+        <v>8.731952255261073E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H29">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I29">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J29">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.0405</v>
+        <v>14.59271166666667</v>
       </c>
       <c r="N29">
-        <v>0.1215</v>
+        <v>43.778135</v>
       </c>
       <c r="O29">
-        <v>0.001777863830614383</v>
+        <v>0.5532787058762763</v>
       </c>
       <c r="P29">
-        <v>0.001777863830614382</v>
+        <v>0.5532787058762761</v>
       </c>
       <c r="Q29">
-        <v>5.809956606</v>
+        <v>3361.124831398783</v>
       </c>
       <c r="R29">
-        <v>52.28960945399999</v>
+        <v>30250.12348258905</v>
       </c>
       <c r="S29">
-        <v>0.0003600331086426456</v>
+        <v>0.1459040399406007</v>
       </c>
       <c r="T29">
-        <v>0.0003600331086426456</v>
+        <v>0.1459040399406006</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.4557186666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H30">
-        <v>430.367156</v>
+        <v>690.98703</v>
       </c>
       <c r="I30">
-        <v>0.2025088212285795</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J30">
-        <v>0.2025088212285796</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,90 +2297,462 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.10639433333333</v>
+        <v>0.5433020000000001</v>
       </c>
       <c r="N30">
-        <v>48.319183</v>
+        <v>1.629906</v>
       </c>
       <c r="O30">
-        <v>0.7070364426381673</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="P30">
-        <v>0.7070364426381672</v>
+        <v>0.02059914800801765</v>
       </c>
       <c r="Q30">
-        <v>2310.55437421706</v>
+        <v>125.13821179102</v>
       </c>
       <c r="R30">
-        <v>20794.98936795355</v>
+        <v>1126.24390611918</v>
       </c>
       <c r="S30">
-        <v>0.1431811165643035</v>
+        <v>0.005432160829222731</v>
       </c>
       <c r="T30">
-        <v>0.1431811165643035</v>
+        <v>0.005432160829222731</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>230.32901</v>
+      </c>
+      <c r="H31">
+        <v>690.98703</v>
+      </c>
+      <c r="I31">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J31">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.1830566666666666</v>
+      </c>
+      <c r="N31">
+        <v>0.5491699999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.006940543878949493</v>
+      </c>
+      <c r="P31">
+        <v>0.006940543878949492</v>
+      </c>
+      <c r="Q31">
+        <v>42.16326080723333</v>
+      </c>
+      <c r="R31">
+        <v>379.4693472650999</v>
+      </c>
+      <c r="S31">
+        <v>0.001830277183214398</v>
+      </c>
+      <c r="T31">
+        <v>0.001830277183214398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H32">
+        <v>454.666397</v>
+      </c>
+      <c r="I32">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J32">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.134954333333333</v>
+      </c>
+      <c r="N32">
+        <v>18.404863</v>
+      </c>
+      <c r="O32">
+        <v>0.2326051299917221</v>
+      </c>
+      <c r="P32">
+        <v>0.232605129991722</v>
+      </c>
+      <c r="Q32">
+        <v>929.7858608320678</v>
+      </c>
+      <c r="R32">
+        <v>8368.07274748861</v>
+      </c>
+      <c r="S32">
+        <v>0.04036134335379356</v>
+      </c>
+      <c r="T32">
+        <v>0.04036134335379355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H33">
+        <v>454.666397</v>
+      </c>
+      <c r="I33">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J33">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.912216333333333</v>
+      </c>
+      <c r="N33">
+        <v>14.736649</v>
+      </c>
+      <c r="O33">
+        <v>0.1862453502798354</v>
+      </c>
+      <c r="P33">
+        <v>0.1862453502798353</v>
+      </c>
+      <c r="Q33">
+        <v>744.4732338537392</v>
+      </c>
+      <c r="R33">
+        <v>6700.259104683652</v>
+      </c>
+      <c r="S33">
+        <v>0.03231705393152551</v>
+      </c>
+      <c r="T33">
+        <v>0.03231705393152551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H34">
+        <v>454.666397</v>
+      </c>
+      <c r="I34">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J34">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.008733333333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.0262</v>
+      </c>
+      <c r="O34">
+        <v>0.0003311219651992584</v>
+      </c>
+      <c r="P34">
+        <v>0.0003311219651992584</v>
+      </c>
+      <c r="Q34">
+        <v>1.323584400155556</v>
+      </c>
+      <c r="R34">
+        <v>11.9122596014</v>
+      </c>
+      <c r="S34">
+        <v>5.745585804520204E-05</v>
+      </c>
+      <c r="T34">
+        <v>5.745585804520203E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H35">
+        <v>454.666397</v>
+      </c>
+      <c r="I35">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J35">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>14.59271166666667</v>
+      </c>
+      <c r="N35">
+        <v>43.778135</v>
+      </c>
+      <c r="O35">
+        <v>0.5532787058762763</v>
+      </c>
+      <c r="P35">
+        <v>0.5532787058762761</v>
+      </c>
+      <c r="Q35">
+        <v>2211.605211981066</v>
+      </c>
+      <c r="R35">
+        <v>19904.44690782959</v>
+      </c>
+      <c r="S35">
+        <v>0.0960042103070111</v>
+      </c>
+      <c r="T35">
+        <v>0.09600421030701109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>143.4557186666667</v>
-      </c>
-      <c r="H31">
-        <v>430.367156</v>
-      </c>
-      <c r="I31">
-        <v>0.2025088212285795</v>
-      </c>
-      <c r="J31">
-        <v>0.2025088212285796</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.4069286666666667</v>
-      </c>
-      <c r="N31">
-        <v>1.220786</v>
-      </c>
-      <c r="O31">
-        <v>0.01786330266930378</v>
-      </c>
-      <c r="P31">
-        <v>0.01786330266930378</v>
-      </c>
-      <c r="Q31">
-        <v>58.3762443227351</v>
-      </c>
-      <c r="R31">
-        <v>525.386198904616</v>
-      </c>
-      <c r="S31">
-        <v>0.003617476366810046</v>
-      </c>
-      <c r="T31">
-        <v>0.003617476366810047</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H36">
+        <v>454.666397</v>
+      </c>
+      <c r="I36">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J36">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5433020000000001</v>
+      </c>
+      <c r="N36">
+        <v>1.629906</v>
+      </c>
+      <c r="O36">
+        <v>0.02059914800801765</v>
+      </c>
+      <c r="P36">
+        <v>0.02059914800801765</v>
+      </c>
+      <c r="Q36">
+        <v>82.34038760763134</v>
+      </c>
+      <c r="R36">
+        <v>741.063488468682</v>
+      </c>
+      <c r="S36">
+        <v>0.003574337700878743</v>
+      </c>
+      <c r="T36">
+        <v>0.003574337700878743</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H37">
+        <v>454.666397</v>
+      </c>
+      <c r="I37">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J37">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.1830566666666666</v>
+      </c>
+      <c r="N37">
+        <v>0.5491699999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.006940543878949493</v>
+      </c>
+      <c r="P37">
+        <v>0.006940543878949492</v>
+      </c>
+      <c r="Q37">
+        <v>27.74323836005444</v>
+      </c>
+      <c r="R37">
+        <v>249.6891452404899</v>
+      </c>
+      <c r="S37">
+        <v>0.001204314258117695</v>
+      </c>
+      <c r="T37">
+        <v>0.001204314258117694</v>
       </c>
     </row>
   </sheetData>
